--- a/data/trans_orig/P57B_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>36370</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26217</v>
+        <v>25624</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48939</v>
+        <v>49717</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0666235665925892</v>
+        <v>0.06662356659258921</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04802529268658295</v>
+        <v>0.04693911267579385</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08964705213564261</v>
+        <v>0.09107165772107814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -762,19 +762,19 @@
         <v>40081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29958</v>
+        <v>31050</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52695</v>
+        <v>55529</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08244449342127337</v>
+        <v>0.08244449342127336</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06162216300404873</v>
+        <v>0.0638691218394323</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1083915520465285</v>
+        <v>0.1142201279279888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>96</v>
@@ -783,19 +783,19 @@
         <v>76451</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61691</v>
+        <v>61366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94565</v>
+        <v>92644</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07407606620544209</v>
+        <v>0.07407606620544208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05977412440611084</v>
+        <v>0.05945967620812949</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09162660658766812</v>
+        <v>0.08976601632056547</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>509537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>496968</v>
+        <v>496190</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>519690</v>
+        <v>520283</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9333764334074109</v>
+        <v>0.9333764334074112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9103529478643574</v>
+        <v>0.9089283422789219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9519747073134168</v>
+        <v>0.9530608873242062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>627</v>
@@ -833,19 +833,19 @@
         <v>446076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>433462</v>
+        <v>430628</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>456199</v>
+        <v>455107</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9175555065787265</v>
+        <v>0.9175555065787266</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8916084479534717</v>
+        <v>0.8857798720720111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9383778369959516</v>
+        <v>0.9361308781605677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1137</v>
@@ -854,19 +854,19 @@
         <v>955614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>937500</v>
+        <v>939421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>970374</v>
+        <v>970699</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9259239337945581</v>
+        <v>0.9259239337945578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9083733934123316</v>
+        <v>0.9102339836794346</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9402258755938891</v>
+        <v>0.9405403237918706</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>34887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23698</v>
+        <v>24910</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47049</v>
+        <v>49677</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07266032739069946</v>
+        <v>0.07266032739069944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04935680613691962</v>
+        <v>0.05188069337711543</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09799115619614256</v>
+        <v>0.1034641478674957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -979,19 +979,19 @@
         <v>41567</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32304</v>
+        <v>32432</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52696</v>
+        <v>52325</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09905945709840563</v>
+        <v>0.09905945709840562</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07698527300747642</v>
+        <v>0.07728873610443963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1255807385918895</v>
+        <v>0.1246974466260512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -1000,19 +1000,19 @@
         <v>76454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62426</v>
+        <v>63227</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93011</v>
+        <v>94371</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08497203650508206</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06938135720151194</v>
+        <v>0.0702712731733245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1033742093602461</v>
+        <v>0.1048859849309977</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>445250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>433088</v>
+        <v>430460</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456439</v>
+        <v>455227</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9273396726093004</v>
+        <v>0.9273396726093006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9020088438038574</v>
+        <v>0.8965358521325045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9506431938630804</v>
+        <v>0.9481193066228847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>522</v>
@@ -1050,19 +1050,19 @@
         <v>378049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>366920</v>
+        <v>367291</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>387312</v>
+        <v>387184</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9009405429015944</v>
+        <v>0.9009405429015943</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8744192614081102</v>
+        <v>0.8753025533739489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9230147269925235</v>
+        <v>0.9227112638955606</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>962</v>
@@ -1071,19 +1071,19 @@
         <v>823298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>806741</v>
+        <v>805381</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>837326</v>
+        <v>836525</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.915027963494918</v>
+        <v>0.9150279634949179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8966257906397541</v>
+        <v>0.8951140150690022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.930618642798488</v>
+        <v>0.9297287268266756</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>40487</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29838</v>
+        <v>30361</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52807</v>
+        <v>54126</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08628154049177884</v>
+        <v>0.08628154049177886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0635879548972797</v>
+        <v>0.0647026684575663</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1125378963945739</v>
+        <v>0.115348539522951</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1196,19 +1196,19 @@
         <v>26112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19605</v>
+        <v>19361</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34481</v>
+        <v>35118</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1411506910457002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1059736725916291</v>
+        <v>0.1046579032277028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1863889825909494</v>
+        <v>0.189832085938813</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -1217,19 +1217,19 @@
         <v>66599</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54569</v>
+        <v>52861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81448</v>
+        <v>81118</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1017966599494938</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08340831438249822</v>
+        <v>0.08079859106123868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.124493156092901</v>
+        <v>0.1239892213711648</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>428753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>416433</v>
+        <v>415114</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>439402</v>
+        <v>438879</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9137184595082213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.887462103605426</v>
+        <v>0.8846514604770491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9364120451027202</v>
+        <v>0.9352973315424338</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -1267,19 +1267,19 @@
         <v>158883</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150514</v>
+        <v>149877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165390</v>
+        <v>165634</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8588493089542999</v>
+        <v>0.8588493089542996</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8136110174090504</v>
+        <v>0.8101679140611866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.894026327408371</v>
+        <v>0.8953420967722971</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>673</v>
@@ -1288,19 +1288,19 @@
         <v>587636</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>572787</v>
+        <v>573117</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>599666</v>
+        <v>601374</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8982033400505062</v>
+        <v>0.8982033400505063</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.875506843907099</v>
+        <v>0.8760107786288354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9165916856175017</v>
+        <v>0.9192014089387611</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>135572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117011</v>
+        <v>115942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157875</v>
+        <v>160871</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.121379762134663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1047621327315684</v>
+        <v>0.1038047298021678</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1413479199062307</v>
+        <v>0.1440305120242044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>173</v>
@@ -1413,19 +1413,19 @@
         <v>102450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88234</v>
+        <v>87935</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120211</v>
+        <v>118212</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1202394200858074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1035547490093313</v>
+        <v>0.1032044467962091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1410849071967188</v>
+        <v>0.1387384756000978</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>343</v>
@@ -1434,19 +1434,19 @@
         <v>238022</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211750</v>
+        <v>214193</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>268662</v>
+        <v>264741</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1208862938034676</v>
+        <v>0.1208862938034675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1075434205829513</v>
+        <v>0.1087841588365489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1364479582418747</v>
+        <v>0.134456471160749</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>981352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>959049</v>
+        <v>956053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>999913</v>
+        <v>1000982</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8786202378653369</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8586520800937696</v>
+        <v>0.8559694879757956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8952378672684316</v>
+        <v>0.8961952701978324</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1042</v>
@@ -1484,19 +1484,19 @@
         <v>749597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>731836</v>
+        <v>733835</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>763813</v>
+        <v>764112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8797605799141927</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8589150928032814</v>
+        <v>0.8612615243999021</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.896445250990669</v>
+        <v>0.8967955532037911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1975</v>
@@ -1505,19 +1505,19 @@
         <v>1730949</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1700309</v>
+        <v>1704230</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1757221</v>
+        <v>1754778</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8791137061965324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8635520417581253</v>
+        <v>0.865543528839251</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8924565794170487</v>
+        <v>0.8912158411634512</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>92708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76556</v>
+        <v>76390</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111146</v>
+        <v>110976</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1677317698731709</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1385100029452519</v>
+        <v>0.1382087080273841</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2010923068469199</v>
+        <v>0.2007835617220005</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>321</v>
@@ -1630,19 +1630,19 @@
         <v>180845</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>162840</v>
+        <v>163455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200601</v>
+        <v>202990</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2233944216646001</v>
+        <v>0.2233944216646002</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.201153018279035</v>
+        <v>0.2019126042005686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2477977200493364</v>
+        <v>0.2507486486148101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -1651,19 +1651,19 @@
         <v>273553</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>249674</v>
+        <v>248186</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>297948</v>
+        <v>302284</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2008100725758296</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1832814784038777</v>
+        <v>0.1821887452731569</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2187185311251788</v>
+        <v>0.2219012721027955</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>460005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>441567</v>
+        <v>441737</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476157</v>
+        <v>476323</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8322682301268293</v>
+        <v>0.832268230126829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.79890769315308</v>
+        <v>0.7992164382779998</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8614899970547482</v>
+        <v>0.8617912919726161</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>935</v>
@@ -1701,19 +1701,19 @@
         <v>628689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>608933</v>
+        <v>606544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>646694</v>
+        <v>646079</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7766055783353998</v>
+        <v>0.7766055783353999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7522022799506635</v>
+        <v>0.7492513513851901</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.798846981720965</v>
+        <v>0.7980873957994316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1361</v>
@@ -1722,19 +1722,19 @@
         <v>1088693</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1064298</v>
+        <v>1059962</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1112572</v>
+        <v>1114060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7991899274241704</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7812814688748212</v>
+        <v>0.7780987278972044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8167185215961225</v>
+        <v>0.8178112547268429</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>9255</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4021</v>
+        <v>4402</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20153</v>
+        <v>21374</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03989185194926399</v>
+        <v>0.039891851949264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01733070350853463</v>
+        <v>0.01897389013124167</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08686572693119314</v>
+        <v>0.09212800517468336</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>233</v>
@@ -1847,19 +1847,19 @@
         <v>136478</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>118797</v>
+        <v>119167</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155873</v>
+        <v>155208</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1663834615268689</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1448279914424908</v>
+        <v>0.1452793933034266</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.190028641686086</v>
+        <v>0.1892177761082511</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>242</v>
@@ -1868,19 +1868,19 @@
         <v>145733</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125903</v>
+        <v>127805</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>165697</v>
+        <v>166537</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1384945026271767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1196496046760409</v>
+        <v>0.1214567684733243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1574670198871634</v>
+        <v>0.1582649202603874</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>222749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211851</v>
+        <v>210630</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227983</v>
+        <v>227602</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9601081480507362</v>
+        <v>0.960108148050736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9131342730688067</v>
+        <v>0.9078719948253168</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9826692964914653</v>
+        <v>0.9810261098687584</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>884</v>
@@ -1918,19 +1918,19 @@
         <v>683783</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>664388</v>
+        <v>665053</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>701464</v>
+        <v>701094</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8336165384731311</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8099713583139139</v>
+        <v>0.8107822238917488</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8551720085575093</v>
+        <v>0.8547206066965735</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>984</v>
@@ -1939,19 +1939,19 @@
         <v>906532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>886568</v>
+        <v>885728</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>926362</v>
+        <v>924460</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8615054973728233</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8425329801128359</v>
+        <v>0.8417350797396121</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8803503953239586</v>
+        <v>0.8785432315266756</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>349278</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>316743</v>
+        <v>318109</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>383703</v>
+        <v>385578</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1028219586193241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09324402980715925</v>
+        <v>0.09364622653184579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1129559656418357</v>
+        <v>0.1135080077583187</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>893</v>
@@ -2064,19 +2064,19 @@
         <v>527533</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>494153</v>
+        <v>490510</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>562698</v>
+        <v>563216</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.147660371139521</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1383171001290503</v>
+        <v>0.137297307424787</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1575033194597863</v>
+        <v>0.1576484224997826</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1310</v>
@@ -2085,19 +2085,19 @@
         <v>876811</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>824914</v>
+        <v>823372</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>920872</v>
+        <v>927174</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1258063003227564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1183600385221456</v>
+        <v>0.1181387897134483</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1321282333476484</v>
+        <v>0.1330324489679447</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3047646</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3013221</v>
+        <v>3011346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3080181</v>
+        <v>3078815</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8971780413806759</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8870440343581643</v>
+        <v>0.8864919922416813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9067559701928409</v>
+        <v>0.9063537734681543</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4249</v>
@@ -2135,19 +2135,19 @@
         <v>3045077</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3009912</v>
+        <v>3009394</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3078457</v>
+        <v>3082100</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.852339628860479</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8424966805402134</v>
+        <v>0.8423515775002174</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8616828998709491</v>
+        <v>0.862702692575213</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7092</v>
@@ -2156,19 +2156,19 @@
         <v>6092723</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6048662</v>
+        <v>6042360</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6144620</v>
+        <v>6146162</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8741936996772436</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8678717666523517</v>
+        <v>0.8669675510320553</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8816399614778546</v>
+        <v>0.8818612102865514</v>
       </c>
     </row>
     <row r="24">
